--- a/hardware.xlsx
+++ b/hardware.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA7526-E2B4-44C8-8EA4-527CB4904EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043825A-7368-4FC1-9F7F-F95913E7EE9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="3105" windowWidth="18090" windowHeight="11385" xr2:uid="{5A3A2576-118F-EC44-8B42-40E440ECE9D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A3A2576-118F-EC44-8B42-40E440ECE9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
   <si>
     <t>MDA</t>
   </si>
@@ -168,12 +168,6 @@
     <t>ATAPI</t>
   </si>
   <si>
-    <t>Used to work…</t>
-  </si>
-  <si>
-    <t>Get it to work again…</t>
-  </si>
-  <si>
     <t>IDE</t>
   </si>
   <si>
@@ -186,21 +180,9 @@
     <t>SATAPI</t>
   </si>
   <si>
-    <t>Reads might work, writes not implemented</t>
-  </si>
-  <si>
-    <t>Finish writing this driver</t>
-  </si>
-  <si>
     <t>Not implemented yet</t>
   </si>
   <si>
-    <t>Works in tested scenarios, not sure about BSD.</t>
-  </si>
-  <si>
-    <t>USE THE BSD OPCODES IN THE RTC!! YEAH!!!</t>
-  </si>
-  <si>
     <t>Kind of works…</t>
   </si>
   <si>
@@ -336,16 +318,13 @@
     <t>Partial</t>
   </si>
   <si>
-    <t>BSD!!!</t>
-  </si>
-  <si>
     <t>Unimpl.</t>
   </si>
   <si>
-    <t>Importance</t>
-  </si>
-  <si>
     <t>PS/2 Mouse</t>
+  </si>
+  <si>
+    <t>ONLY TESTED IN VIRTUALBOX</t>
   </si>
 </sst>
 </file>
@@ -404,25 +383,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -455,16 +416,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F84B339-7700-A147-BED1-81124010906E}" name="Table1" displayName="Table1" ref="A1:F55" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F55" xr:uid="{B4B9B0EF-EC55-F54A-A7D0-C5F5BDD3A055}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F84B339-7700-A147-BED1-81124010906E}" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E55" xr:uid="{B4B9B0EF-EC55-F54A-A7D0-C5F5BDD3A055}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E55">
     <sortCondition ref="C1:C55"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C45BEBD6-5E64-7945-935A-708114FB46AF}" name="Hardware"/>
     <tableColumn id="2" xr3:uid="{44A299D0-3610-AA44-A0D5-806AA9774E62}" name="Type"/>
     <tableColumn id="5" xr3:uid="{4A28F890-3097-024A-83FE-C0D8761C0EE7}" name="Summary"/>
-    <tableColumn id="6" xr3:uid="{383C7F07-483C-B449-B0E2-96DD3A75D36B}" name="Importance" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{996EA298-CE62-D649-9055-6088F7B41FB5}" name="Current Support"/>
     <tableColumn id="4" xr3:uid="{64A9CD82-4B58-3C47-86C1-DB624C31B45A}" name="Future Updates"/>
   </tableColumns>
@@ -769,22 +729,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9903BA-682F-DD43-9BC1-2DC76ACE0D74}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="90.125" customWidth="1"/>
-    <col min="6" max="6" width="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="90.125" customWidth="1"/>
+    <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,489 +752,408 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1282,73 +1161,55 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -1356,13 +1217,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1370,13 +1231,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1384,13 +1245,13 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1398,195 +1259,195 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1596,11 +1457,11 @@
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1610,13 +1471,13 @@
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -1624,11 +1485,11 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1638,11 +1499,11 @@
       <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1652,13 +1513,13 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -1666,12 +1527,11 @@
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -1681,14 +1541,13 @@
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
@@ -1696,27 +1555,15 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D55">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/hardware.xlsx
+++ b/hardware.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043825A-7368-4FC1-9F7F-F95913E7EE9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60D381-FD9F-43C9-A570-B31DD2831BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A3A2576-118F-EC44-8B42-40E440ECE9D9}"/>
+    <workbookView xWindow="180" yWindow="1260" windowWidth="14640" windowHeight="13290" xr2:uid="{5A3A2576-118F-EC44-8B42-40E440ECE9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>MDA</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>PS/2 Mouse</t>
-  </si>
-  <si>
-    <t>ONLY TESTED IN VIRTUALBOX</t>
   </si>
 </sst>
 </file>
@@ -732,7 +729,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,44 +828,44 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -877,12 +874,12 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -916,24 +913,21 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -947,7 +941,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -961,35 +955,38 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -1001,12 +998,12 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1015,15 +1012,12 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -1032,12 +1026,12 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1051,7 +1045,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1060,12 +1054,12 @@
         <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1074,12 +1068,12 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1088,12 +1082,12 @@
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1102,60 +1096,60 @@
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1237,9 +1231,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1251,9 +1245,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
@@ -1265,9 +1259,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -1279,9 +1273,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -1293,9 +1287,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -1307,9 +1301,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -1321,9 +1315,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -1335,9 +1329,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -1349,9 +1343,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -1363,9 +1357,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -1377,21 +1371,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1419,7 +1416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1433,7 +1430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1443,11 +1440,11 @@
       <c r="C47" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
